--- a/data/trans_orig/P33B5_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>43276</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31419</v>
+        <v>31887</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56312</v>
+        <v>57600</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08677069945862803</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06299643134325317</v>
+        <v>0.06393526589805607</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1129084493815306</v>
+        <v>0.1154913914449454</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>152</v>
@@ -762,19 +762,19 @@
         <v>95174</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>81389</v>
+        <v>81225</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>110159</v>
+        <v>111096</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1526251349834311</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1305193111042777</v>
+        <v>0.130255792779423</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.176655055255725</v>
+        <v>0.1781589711892231</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>199</v>
@@ -783,19 +783,19 @@
         <v>138450</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>118980</v>
+        <v>119248</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>159038</v>
+        <v>159151</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1233605676972698</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1060129218283042</v>
+        <v>0.1062517810521649</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.14170501762491</v>
+        <v>0.14180547397377</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>22527</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14643</v>
+        <v>14762</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36411</v>
+        <v>35503</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04516862866845611</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02936064620984377</v>
+        <v>0.02959909562203265</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07300638773520333</v>
+        <v>0.07118516402445217</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>61</v>
@@ -833,19 +833,19 @@
         <v>39974</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>31109</v>
+        <v>30869</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50215</v>
+        <v>50425</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06410379104105052</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04988815944576268</v>
+        <v>0.04950346386406072</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08052763614676134</v>
+        <v>0.08086327984380211</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>84</v>
@@ -854,19 +854,19 @@
         <v>62501</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>49935</v>
+        <v>49074</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>78757</v>
+        <v>78588</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05568933377767493</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0444929501206266</v>
+        <v>0.04372569691942196</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07017372586049708</v>
+        <v>0.07002305488501928</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>37600</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26452</v>
+        <v>27233</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>51328</v>
+        <v>51031</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07538953546633612</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05303751608087981</v>
+        <v>0.05460377635639014</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1029151909561798</v>
+        <v>0.1023204712682655</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>84</v>
@@ -904,19 +904,19 @@
         <v>55378</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>44545</v>
+        <v>43317</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>69520</v>
+        <v>68299</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08880608719567269</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0714343973789547</v>
+        <v>0.06946581633133449</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1114848841195934</v>
+        <v>0.1095276738926825</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>121</v>
@@ -925,19 +925,19 @@
         <v>92977</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>76212</v>
+        <v>77150</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>109991</v>
+        <v>111433</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08284400464644857</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06790572320027091</v>
+        <v>0.06874125772178054</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09800351739787311</v>
+        <v>0.09928811384780419</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>395336</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>375678</v>
+        <v>373714</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>411211</v>
+        <v>411587</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7926711364065797</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7532552295715289</v>
+        <v>0.7493173598875463</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8245018382155682</v>
+        <v>0.8252559573941847</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>564</v>
@@ -975,19 +975,19 @@
         <v>433054</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>413156</v>
+        <v>410862</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>451133</v>
+        <v>451506</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6944649867798456</v>
+        <v>0.6944649867798455</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6625556455501788</v>
+        <v>0.658876297222785</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7234562976668458</v>
+        <v>0.7240551596691925</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>912</v>
@@ -996,19 +996,19 @@
         <v>828391</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>802488</v>
+        <v>798419</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>856134</v>
+        <v>857041</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7381060938786067</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7150258778934798</v>
+        <v>0.7114007673891848</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7628250174120739</v>
+        <v>0.7636335527955996</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>57359</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>44587</v>
+        <v>45565</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>71244</v>
+        <v>72244</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05974019894376096</v>
+        <v>0.05974019894376095</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04643785142887021</v>
+        <v>0.04745719436211344</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07420238617087038</v>
+        <v>0.07524354668594925</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>199</v>
@@ -1121,19 +1121,19 @@
         <v>122813</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>107070</v>
+        <v>107374</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>142664</v>
+        <v>139832</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.1101279611476336</v>
+        <v>0.1101279611476335</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0960114874354982</v>
+        <v>0.09628406119842943</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1279290804584658</v>
+        <v>0.1253890660469573</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>274</v>
@@ -1142,19 +1142,19 @@
         <v>180171</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>161306</v>
+        <v>158378</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>204419</v>
+        <v>202558</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.08681627851444332</v>
+        <v>0.08681627851444333</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07772607835406821</v>
+        <v>0.07631522879742031</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09849997848169514</v>
+        <v>0.09760321767638923</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>16650</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10379</v>
+        <v>10448</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25889</v>
+        <v>26208</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01734103636043722</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01080973495621913</v>
+        <v>0.01088203088088583</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02696436743939836</v>
+        <v>0.02729575905148788</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>84</v>
@@ -1192,19 +1192,19 @@
         <v>49755</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39683</v>
+        <v>39888</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61110</v>
+        <v>62082</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04461629195746088</v>
+        <v>0.04461629195746089</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03558393739041628</v>
+        <v>0.03576774078302509</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05479784498424038</v>
+        <v>0.05566960904303164</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>105</v>
@@ -1213,19 +1213,19 @@
         <v>66405</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55437</v>
+        <v>54288</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80998</v>
+        <v>81236</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03199751163448608</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02671258328572835</v>
+        <v>0.02615872831483502</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0390291595285098</v>
+        <v>0.03914379610870683</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>75234</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60441</v>
+        <v>59090</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>94814</v>
+        <v>92638</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.07835716895413854</v>
+        <v>0.07835716895413852</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0629499084842309</v>
+        <v>0.06154352937633618</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09875010518721981</v>
+        <v>0.09648464075337065</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>149</v>
@@ -1263,19 +1263,19 @@
         <v>93125</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>79572</v>
+        <v>77889</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>108668</v>
+        <v>108746</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0835061827625446</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07135350442653524</v>
+        <v>0.06984454371305378</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09744419015025448</v>
+        <v>0.09751462189670274</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>227</v>
@@ -1284,19 +1284,19 @@
         <v>168358</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>148683</v>
+        <v>146496</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>193701</v>
+        <v>193037</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08112401355070666</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07164349043480525</v>
+        <v>0.07058988018915655</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09333566786853489</v>
+        <v>0.0930157812573791</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>810895</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>786048</v>
+        <v>790026</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>831475</v>
+        <v>834879</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8445615957416635</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8186836240348312</v>
+        <v>0.8228260161402895</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8659958941640031</v>
+        <v>0.8695411439655469</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1174</v>
@@ -1334,19 +1334,19 @@
         <v>849489</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>825077</v>
+        <v>826501</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>873061</v>
+        <v>873250</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.7617495641323609</v>
+        <v>0.7617495641323611</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7398593059565073</v>
+        <v>0.7411359355210828</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.782887418686019</v>
+        <v>0.7830565304744325</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1910</v>
@@ -1355,19 +1355,19 @@
         <v>1660383</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1623388</v>
+        <v>1624860</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1690295</v>
+        <v>1692600</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8000621963003639</v>
+        <v>0.800062196300364</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7822362500886498</v>
+        <v>0.7829455724476879</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8144754790879286</v>
+        <v>0.8155864257533741</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>40227</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>29498</v>
+        <v>29872</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>52967</v>
+        <v>54035</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03844051881221169</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02818745254090359</v>
+        <v>0.02854553217739859</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05061478182845259</v>
+        <v>0.05163485619698787</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>101</v>
@@ -1480,19 +1480,19 @@
         <v>62827</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51149</v>
+        <v>50792</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>76965</v>
+        <v>76657</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05997037472494338</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04882343787093397</v>
+        <v>0.04848233047161787</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07346463768256144</v>
+        <v>0.07317081570392259</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>151</v>
@@ -1501,19 +1501,19 @@
         <v>103055</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>87537</v>
+        <v>84913</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>122634</v>
+        <v>121319</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.04921142192131662</v>
+        <v>0.04921142192131663</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04180148726070445</v>
+        <v>0.04054829131757253</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05856105388609512</v>
+        <v>0.05793297024919786</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>16432</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10509</v>
+        <v>10926</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>24082</v>
+        <v>24608</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01570214277510453</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01004198402230651</v>
+        <v>0.01044048907828442</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02301200698318316</v>
+        <v>0.02351545333680015</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>53</v>
@@ -1551,19 +1551,19 @@
         <v>32894</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>25175</v>
+        <v>24572</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>43115</v>
+        <v>43323</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03139770894554589</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02402994822919991</v>
+        <v>0.02345485688909089</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04115466599865611</v>
+        <v>0.04135302761690247</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>76</v>
@@ -1572,19 +1572,19 @@
         <v>49326</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>38373</v>
+        <v>38952</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>61814</v>
+        <v>62610</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.02355428183026644</v>
+        <v>0.02355428183026645</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0183240822914177</v>
+        <v>0.01860047020731543</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.029517901523084</v>
+        <v>0.02989775917349529</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>56770</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>43631</v>
+        <v>43543</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73278</v>
+        <v>75635</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05424811756168392</v>
+        <v>0.05424811756168391</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04169327169201845</v>
+        <v>0.04160887627444816</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07002318658052559</v>
+        <v>0.07227578014770715</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>142</v>
@@ -1622,19 +1622,19 @@
         <v>84749</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>72129</v>
+        <v>70888</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>100931</v>
+        <v>100435</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.08089467079130558</v>
+        <v>0.08089467079130559</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06884863878622535</v>
+        <v>0.06766413836207899</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09634084609155318</v>
+        <v>0.09586794426590127</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>206</v>
@@ -1643,19 +1643,19 @@
         <v>141518</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>122153</v>
+        <v>121791</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>163804</v>
+        <v>162295</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06757878935954487</v>
+        <v>0.06757878935954488</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05833133654744952</v>
+        <v>0.05815831301332156</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07822106010654585</v>
+        <v>0.07750023519691746</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>933050</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>913481</v>
+        <v>910622</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>951248</v>
+        <v>950606</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8916092208509998</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8729093469780281</v>
+        <v>0.8701770386383986</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9089988629027476</v>
+        <v>0.9083853169860359</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1220</v>
@@ -1693,19 +1693,19 @@
         <v>867172</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>845445</v>
+        <v>847054</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>886895</v>
+        <v>888307</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.827737245538205</v>
+        <v>0.8277372455382053</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8069980301123475</v>
+        <v>0.8085334218748595</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8465628821155704</v>
+        <v>0.8479106422943059</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2112</v>
@@ -1714,19 +1714,19 @@
         <v>1800223</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1768270</v>
+        <v>1769957</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1829359</v>
+        <v>1828140</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8596555068888719</v>
+        <v>0.859655506888872</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8443971219180464</v>
+        <v>0.8452026686405231</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8735688773525536</v>
+        <v>0.8729868281802753</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>29809</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20189</v>
+        <v>20731</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43759</v>
+        <v>44912</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0305443475516958</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02068741445021689</v>
+        <v>0.02124240668540995</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04483817103648846</v>
+        <v>0.04601982034820782</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>76</v>
@@ -1839,19 +1839,19 @@
         <v>49157</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>38100</v>
+        <v>38824</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>60905</v>
+        <v>61513</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05412236831629317</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04194858005757657</v>
+        <v>0.04274587141355434</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06705730117952342</v>
+        <v>0.0677265792140965</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>105</v>
@@ -1860,19 +1860,19 @@
         <v>78966</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>63563</v>
+        <v>63967</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>95883</v>
+        <v>95948</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04190990464016581</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0337353496516621</v>
+        <v>0.03394942552772946</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05088865877370425</v>
+        <v>0.05092310783390556</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>9435</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4942</v>
+        <v>4639</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16150</v>
+        <v>16222</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009667543899715957</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005063752282479022</v>
+        <v>0.004753805269442224</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01654861980723478</v>
+        <v>0.01662239602979367</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>32</v>
@@ -1910,19 +1910,19 @@
         <v>18465</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12760</v>
+        <v>12532</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>27390</v>
+        <v>27001</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02032985886994713</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01404876837046565</v>
+        <v>0.01379779879037486</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03015721904383598</v>
+        <v>0.02972897033590291</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>44</v>
@@ -1931,19 +1931,19 @@
         <v>27899</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>19865</v>
+        <v>20114</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>37784</v>
+        <v>39450</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01480720980718553</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01054281894104243</v>
+        <v>0.01067508317404658</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02005318601125676</v>
+        <v>0.02093738094479319</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>58448</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>45582</v>
+        <v>45751</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>74626</v>
+        <v>73190</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05988935546670243</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04670576916054243</v>
+        <v>0.04687991125337131</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07646626820465627</v>
+        <v>0.07499490168036932</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>199</v>
@@ -1981,19 +1981,19 @@
         <v>98471</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>84994</v>
+        <v>85766</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>114473</v>
+        <v>115263</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.108418149297016</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09357956050077006</v>
+        <v>0.09443006815977822</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1260366374912923</v>
+        <v>0.1269061635417447</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>273</v>
@@ -2002,19 +2002,19 @@
         <v>156919</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>139151</v>
+        <v>137202</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>177110</v>
+        <v>178233</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.08328219162626624</v>
+        <v>0.08328219162626622</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07385227725299918</v>
+        <v>0.07281810463379937</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09399864820639532</v>
+        <v>0.09459450846265381</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>878237</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>856917</v>
+        <v>857802</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>895354</v>
+        <v>895602</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8998987530818858</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8780521837693124</v>
+        <v>0.8789593949611698</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9174379856446284</v>
+        <v>0.917691849917915</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1013</v>
@@ -2052,19 +2052,19 @@
         <v>742159</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>721393</v>
+        <v>721913</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>760294</v>
+        <v>759757</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8171296235167437</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.794265806266607</v>
+        <v>0.7948381139943327</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8370973210962971</v>
+        <v>0.8365054438652376</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1845</v>
@@ -2073,19 +2073,19 @@
         <v>1620396</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1592542</v>
+        <v>1592166</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1644997</v>
+        <v>1647688</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8600006939263826</v>
+        <v>0.8600006939263823</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8452173749906055</v>
+        <v>0.8450181871656943</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8730572620740706</v>
+        <v>0.8744854541774358</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>170671</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>146606</v>
+        <v>146361</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>196694</v>
+        <v>196562</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0490253086707001</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04211267773781179</v>
+        <v>0.04204227200515359</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05650036395303098</v>
+        <v>0.05646255035206128</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>528</v>
@@ -2198,19 +2198,19 @@
         <v>329971</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>299549</v>
+        <v>299850</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>357438</v>
+        <v>357083</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.08931033996948322</v>
+        <v>0.08931033996948323</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08107628955874162</v>
+        <v>0.08115777487798635</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09674465786455395</v>
+        <v>0.09664862930380591</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>729</v>
@@ -2219,19 +2219,19 @@
         <v>500642</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>462553</v>
+        <v>459532</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>537496</v>
+        <v>537706</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06976674035505755</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06445889880461522</v>
+        <v>0.06403783853786912</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07490253664328213</v>
+        <v>0.07493181147333651</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>65044</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>50863</v>
+        <v>49224</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>82176</v>
+        <v>81976</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01868389196638898</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01461029056254987</v>
+        <v>0.01413966388769316</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02360505318008407</v>
+        <v>0.02354771520252336</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>230</v>
@@ -2269,19 +2269,19 @@
         <v>141087</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>122264</v>
+        <v>123007</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>160458</v>
+        <v>159753</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.03818686952115527</v>
+        <v>0.03818686952115528</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03309210784758706</v>
+        <v>0.03329316854362573</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04342979423709183</v>
+        <v>0.04323894822008281</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>309</v>
@@ -2290,19 +2290,19 @@
         <v>206131</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>184799</v>
+        <v>181657</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>233559</v>
+        <v>232951</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02872533077261775</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02575260083131031</v>
+        <v>0.02531477108045642</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03254757734741018</v>
+        <v>0.03246280397463678</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>228051</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>203285</v>
+        <v>199637</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>260275</v>
+        <v>256827</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06550760860212547</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.058393714147514</v>
+        <v>0.05734571000564076</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07476416461994338</v>
+        <v>0.07377359444261324</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>574</v>
@@ -2340,19 +2340,19 @@
         <v>331722</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>303903</v>
+        <v>303704</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>361144</v>
+        <v>359601</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.08978425445160271</v>
+        <v>0.08978425445160272</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08225475897595415</v>
+        <v>0.0822008261791025</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09774772952935341</v>
+        <v>0.09733012045104941</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>827</v>
@@ -2361,19 +2361,19 @@
         <v>559772</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>521544</v>
+        <v>522925</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>602435</v>
+        <v>603728</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.07800685150149692</v>
+        <v>0.07800685150149693</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07267955619597452</v>
+        <v>0.07287198540564394</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08395205870055981</v>
+        <v>0.08413227945749278</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>3017518</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2975624</v>
+        <v>2978411</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3054075</v>
+        <v>3055031</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8667831907607856</v>
+        <v>0.8667831907607855</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.854748963035602</v>
+        <v>0.8555495478125426</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.877284201400659</v>
+        <v>0.8775588084291596</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3971</v>
@@ -2411,19 +2411,19 @@
         <v>2891873</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2849948</v>
+        <v>2849631</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2932376</v>
+        <v>2933564</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.7827185360577589</v>
+        <v>0.7827185360577588</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7713708628813659</v>
+        <v>0.7712851257407957</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7936810379895487</v>
+        <v>0.7940025795652729</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6779</v>
@@ -2432,19 +2432,19 @@
         <v>5909393</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5846090</v>
+        <v>5853870</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>5963555</v>
+        <v>5969759</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.8235010773708277</v>
+        <v>0.8235010773708276</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8146795656367312</v>
+        <v>0.8157637478986561</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.831048842284279</v>
+        <v>0.8319133345994155</v>
       </c>
     </row>
     <row r="28">
